--- a/btpy/src/btpy/res/country_dict.xlsx
+++ b/btpy/src/btpy/res/country_dict.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>europe</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Russia</t>
+  </si>
+  <si>
+    <t>Norway</t>
   </si>
   <si>
     <t>america</t>
@@ -1006,18 +1009,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.3333333333333" defaultRowHeight="19" customHeight="1" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="21.3333333333333" defaultRowHeight="19" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="16384" width="21.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,25 +1041,28 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
